--- a/Checklists/Mobile_App_Security_Checklist-English_1.1.3.1.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-English_1.1.3.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\owasp-mstg\owasp-mstg-20200426-2049.work\Checklists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\owasp-mstg\checklist.work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41890B0-26ED-406E-8492-1EB0B5BA9A93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FEA84F-6ADF-4FC5-BB3C-C7D1C730863B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="120" windowWidth="18840" windowHeight="9920" tabRatio="705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="280" windowWidth="18780" windowHeight="9920" tabRatio="705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -89,10 +89,6 @@
   </si>
   <si>
     <t>Online version of the MSTG:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The two rows above are used to construct the base for all hyperlinks in the Android and iOS cehcklists. 
-Adjust to your specific use case to update all hyperlinks to a specific version of the MSTG </t>
   </si>
   <si>
     <t>Client Name:</t>
@@ -1433,6 +1429,11 @@
 1.2, 1.3, 1.7, 2.1, 2.12, 3.1, 3.4, 4.2, 4.6, 4.8, 4.9, 4.11, 5.4, 5.5, 6.2, 6.3, 6.4, 6.5, 6.6, 6.7, 6.8, 7.1, 7.2, 7.3, 7.4, 7.5, 7.6, 7.7, 7.8, 7.9, 8.2, 8.5, 8.12
 - Changes in Spanish
 1.7, 1.8, 1.9, 1.10, 2.1, 2.3, 2.5, 2.6, 2.8, 2.9, 2.10, 3.1, 3.3, 3.4, 3.6, 4.8, 4.9, 4.10, 4.11, 5.2, 5.3, 5.4, 5.5, 6.1, 6.2, 6.3, 6.4, 6.6, 6.7, 6.8, 7.1, 7.2, 7.3, 7.4, 7.5, 7.6, 7.8, 7.9, 8.2, 8.3, 8.4, 8.5, 8.7, 8.8, 8.9, 8.10, 8.11, 8.12</t>
+    <phoneticPr fontId="27"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The two rows above are used to construct the base for all hyperlinks in the Android and iOS checklists. 
+Adjust to your specific use case to update all hyperlinks to a specific version of the MSTG </t>
     <phoneticPr fontId="27"/>
   </si>
 </sst>
@@ -3856,62 +3857,62 @@
     </row>
     <row r="15" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="125" t="s">
-        <v>8</v>
+        <v>400</v>
       </c>
       <c r="C15" s="125"/>
       <c r="D15" s="125"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="126"/>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="123"/>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="126"/>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="126"/>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="126"/>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="126"/>
       <c r="D21" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="126"/>
       <c r="D22" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
@@ -3921,42 +3922,42 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="5"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="126" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="126"/>
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" s="126" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="126"/>
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" s="126" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="126"/>
       <c r="D28" s="5"/>
     </row>
     <row r="29" spans="2:4" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="127" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="127"/>
       <c r="D29" s="5"/>
@@ -3968,42 +3969,42 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" s="126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" s="126"/>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" s="126" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" s="126"/>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" s="126" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="126"/>
       <c r="D35" s="5"/>
     </row>
     <row r="36" spans="2:4" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="127" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" s="127"/>
       <c r="D36" s="5"/>
@@ -4015,7 +4016,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
@@ -4027,35 +4028,35 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40" s="129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C40" s="129"/>
       <c r="D40" s="12"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" s="129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C41" s="129"/>
       <c r="D41" s="12"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42" s="129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" s="129"/>
       <c r="D42" s="12"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43" s="129" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C43" s="129"/>
       <c r="D43" s="13"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44" s="129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C44" s="129"/>
       <c r="D44" s="12"/>
@@ -4067,35 +4068,35 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46" s="129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" s="129"/>
       <c r="D46" s="12"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47" s="129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C47" s="129"/>
       <c r="D47" s="12"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48" s="129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48" s="129"/>
       <c r="D48" s="12"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" s="129" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C49" s="129"/>
       <c r="D49" s="13"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" s="129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" s="129"/>
       <c r="D50" s="12"/>
@@ -4142,8 +4143,8 @@
   </mergeCells>
   <phoneticPr fontId="27"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4168,7 +4169,7 @@
     <row r="2" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B2" s="15"/>
       <c r="C2" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -4202,12 +4203,12 @@
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="132"/>
       <c r="I6" s="132"/>
       <c r="V6" s="132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W6" s="132"/>
       <c r="X6" s="132"/>
@@ -4328,7 +4329,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
@@ -4364,13 +4365,13 @@
     <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D41" s="130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E41" s="130"/>
       <c r="F41" s="130"/>
       <c r="G41" s="130"/>
       <c r="H41" s="130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I41" s="130"/>
       <c r="J41" s="130"/>
@@ -4378,33 +4379,33 @@
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D42" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="F42" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="G42" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="25" t="s">
-        <v>41</v>
-      </c>
       <c r="H42" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I42" s="25" t="s">
+      <c r="J42" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J42" s="25" t="s">
+      <c r="K42" s="25" t="s">
         <v>40</v>
-      </c>
-      <c r="K42" s="25" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C43" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" s="27">
         <f>COUNTIFS('Security Requirements - Android'!G5:G16,'Security Requirements - Android'!B88)</f>
@@ -4441,7 +4442,7 @@
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C44" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="27">
         <f>COUNTIFS('Security Requirements - Android'!G18:G32,'Security Requirements - Android'!B88)</f>
@@ -4478,7 +4479,7 @@
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C45" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="27">
         <f>COUNTIFS('Security Requirements - Android'!G34:G39,'Security Requirements - Android'!B88)</f>
@@ -4515,7 +4516,7 @@
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C46" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D46" s="27">
         <f>COUNTIFS('Security Requirements - Android'!G41:G52,'Security Requirements - Android'!B88)</f>
@@ -4552,7 +4553,7 @@
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C47" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="27">
         <f>COUNTIFS('Security Requirements - Android'!G54:G59,'Security Requirements - Android'!B88)</f>
@@ -4589,7 +4590,7 @@
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C48" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" s="27">
         <f>COUNTIFS('Security Requirements - Android'!G61:G71,'Security Requirements - Android'!B88)</f>
@@ -4626,7 +4627,7 @@
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C49" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49" s="27">
         <f>COUNTIFS('Security Requirements - Android'!G73:G81,'Security Requirements - Android'!B88)</f>
@@ -4663,7 +4664,7 @@
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C50" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" s="27">
         <f>COUNTIFS('Anti-RE - Android'!F5:F20,'Security Requirements - Android'!B88)</f>
@@ -4749,7 +4750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK94"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4771,7 +4772,7 @@
   <sheetData>
     <row r="1" spans="2:11" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B1" s="135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="135"/>
       <c r="D1" s="135"/>
@@ -4797,39 +4798,39 @@
     </row>
     <row r="3" spans="2:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="D3" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="E3" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="F3" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="G3" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="H3" s="136" t="s">
         <v>56</v>
-      </c>
-      <c r="H3" s="136" t="s">
-        <v>57</v>
       </c>
       <c r="I3" s="136"/>
       <c r="J3" s="34"/>
       <c r="K3" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B4" s="72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="73"/>
       <c r="D4" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="74"/>
       <c r="F4" s="74"/>
@@ -4841,19 +4842,19 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="D5" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>63</v>
-      </c>
       <c r="E5" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="112"/>
       <c r="H5" s="79" t="str">
@@ -4869,19 +4870,19 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B6" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="D6" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="37" t="s">
-        <v>67</v>
-      </c>
       <c r="E6" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="112"/>
       <c r="H6" s="79" t="str">
@@ -4897,19 +4898,19 @@
     </row>
     <row r="7" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="D7" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="37" t="s">
-        <v>70</v>
-      </c>
       <c r="E7" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="112"/>
       <c r="H7" s="79" t="str">
@@ -4922,19 +4923,19 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B8" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="D8" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="37" t="s">
-        <v>73</v>
-      </c>
       <c r="E8" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="112"/>
       <c r="H8" s="79" t="str">
@@ -4947,20 +4948,20 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="D9" s="37" t="s">
         <v>75</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>76</v>
       </c>
       <c r="E9" s="80"/>
       <c r="F9" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H9" s="79" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#environmental-information"), "Environmental Information")</f>
@@ -4972,20 +4973,20 @@
     </row>
     <row r="10" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="D10" s="37" t="s">
         <v>79</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>80</v>
       </c>
       <c r="E10" s="80"/>
       <c r="F10" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H10" s="79" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#mapping-the-application"), "Mapping the Application")</f>
@@ -4997,20 +4998,20 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B11" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="D11" s="37" t="s">
         <v>82</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>83</v>
       </c>
       <c r="E11" s="80"/>
       <c r="F11" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H11" s="79" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-for-insecure-configuration-of-instant-apps-mstg-arch-1-mstg-arch-7"),"Testing for insecure Configuration of Instant Apps (MSTG-ARCH-1, MSTG-ARCH-7)")</f>
@@ -5028,20 +5029,20 @@
     </row>
     <row r="12" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="D12" s="37" t="s">
         <v>85</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>86</v>
       </c>
       <c r="E12" s="80"/>
       <c r="F12" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12" s="79" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04g-Testing-Cryptography.md#cryptographic-policy"), "Cryptographic policy")</f>
@@ -5053,20 +5054,20 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B13" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="D13" s="37" t="s">
         <v>88</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>89</v>
       </c>
       <c r="E13" s="80"/>
       <c r="F13" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H13" s="79" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x05h-Testing-Platform-Interaction.md#testing-enforced-updating-mstg-arch-9"), "Testing enforced updating (MSTG-ARCH-9)")</f>
@@ -5078,20 +5079,20 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="D14" s="37" t="s">
         <v>91</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>92</v>
       </c>
       <c r="E14" s="80"/>
       <c r="F14" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H14" s="79" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#security-testing-and-the-sdlc"), "Security Testing and the SDLC")</f>
@@ -5103,20 +5104,20 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B15" s="75" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E15" s="80"/>
       <c r="F15" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H15" s="79"/>
       <c r="I15" s="80"/>
@@ -5125,19 +5126,19 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B16" s="75" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E16" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="112"/>
       <c r="H16" s="79"/>
@@ -5147,11 +5148,11 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17" s="81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="82"/>
       <c r="D17" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" s="83"/>
       <c r="F17" s="84"/>
@@ -5163,19 +5164,19 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="76" t="s">
-        <v>96</v>
-      </c>
       <c r="D18" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E18" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="112"/>
       <c r="H18" s="85" t="str">
@@ -5191,13 +5192,13 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="76" t="s">
+      <c r="D19" s="37" t="s">
         <v>98</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>99</v>
       </c>
       <c r="E19" s="77"/>
       <c r="F19" s="78"/>
@@ -5212,19 +5213,19 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="D20" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="37" t="s">
-        <v>102</v>
-      </c>
       <c r="E20" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="112"/>
       <c r="H20" s="86" t="str">
@@ -5237,19 +5238,19 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="D21" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="37" t="s">
-        <v>105</v>
-      </c>
       <c r="E21" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="112"/>
       <c r="H21" s="85" t="str">
@@ -5262,19 +5263,19 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="D22" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="44" t="s">
-        <v>108</v>
-      </c>
       <c r="E22" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F22" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" s="112"/>
       <c r="H22" s="85" t="str">
@@ -5287,19 +5288,19 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="D23" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="44" t="s">
-        <v>111</v>
-      </c>
       <c r="E23" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F23" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23" s="112"/>
       <c r="H23" s="85" t="str">
@@ -5312,19 +5313,19 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="D24" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="44" t="s">
-        <v>114</v>
-      </c>
       <c r="E24" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24" s="112"/>
       <c r="H24" s="86" t="str">
@@ -5337,20 +5338,20 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="76" t="s">
+      <c r="D25" s="44" t="s">
         <v>116</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>117</v>
       </c>
       <c r="E25" s="80"/>
       <c r="F25" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G25" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H25" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-backups-for-sensitive-data-mstg-storage-8"),"Testing Backups for Sensitive Data (MSTG-STORAGE-8)")</f>
@@ -5362,20 +5363,20 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B26" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="76" t="s">
+      <c r="D26" s="44" t="s">
         <v>119</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>120</v>
       </c>
       <c r="E26" s="80"/>
       <c r="F26" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G26" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H26" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#finding-sensitive-information-in-auto-generated-screenshots-mstg-storage-9"),"Finding Sensitive Information in Auto-Generated Screenshots (MSTG-STORAGE-9)")</f>
@@ -5387,20 +5388,20 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B27" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="76" t="s">
+      <c r="D27" s="44" t="s">
         <v>122</v>
-      </c>
-      <c r="D27" s="44" t="s">
-        <v>123</v>
       </c>
       <c r="E27" s="80"/>
       <c r="F27" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H27" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#checking-memory-for-sensitive-data-mstg-storage-10"),"Checking Memory for Sensitive Data (MSTG-STORAGE-10)")</f>
@@ -5412,20 +5413,20 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="76" t="s">
+      <c r="D28" s="44" t="s">
         <v>125</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>126</v>
       </c>
       <c r="E28" s="80"/>
       <c r="F28" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H28" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-the-device-access-security-policy-mstg-storage-11"),"Testing the Device-Access-Security Policy (MSTG-STORAGE-11)")</f>
@@ -5440,20 +5441,20 @@
     </row>
     <row r="29" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B29" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="D29" s="37" t="s">
         <v>128</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>129</v>
       </c>
       <c r="E29" s="80"/>
       <c r="F29" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H29" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04i-Testing-user-interaction.md#testing-user-education-mstg-storage-12"),"Testing User Education (MSTG-STORAGE-12)")</f>
@@ -5465,20 +5466,20 @@
     </row>
     <row r="30" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B30" s="75" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C30" s="76" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E30" s="80"/>
       <c r="F30" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H30" s="86"/>
       <c r="I30" s="80"/>
@@ -5487,20 +5488,20 @@
     </row>
     <row r="31" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B31" s="75" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C31" s="76" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E31" s="80"/>
       <c r="F31" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H31" s="86"/>
       <c r="I31" s="80"/>
@@ -5509,20 +5510,20 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B32" s="75" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C32" s="76" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E32" s="80"/>
       <c r="F32" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H32" s="86"/>
       <c r="I32" s="80"/>
@@ -5531,11 +5532,11 @@
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B33" s="81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C33" s="82"/>
       <c r="D33" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E33" s="83"/>
       <c r="F33" s="84"/>
@@ -5547,19 +5548,19 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B34" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="76" t="s">
+      <c r="D34" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="44" t="s">
-        <v>134</v>
-      </c>
       <c r="E34" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F34" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G34" s="112"/>
       <c r="H34" s="86" t="str">
@@ -5575,19 +5576,19 @@
     </row>
     <row r="35" spans="2:13" ht="31" x14ac:dyDescent="0.35">
       <c r="B35" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="C35" s="76" t="s">
+      <c r="D35" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="D35" s="44" t="s">
-        <v>137</v>
-      </c>
       <c r="E35" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F35" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G35" s="112"/>
       <c r="H35" s="86" t="str">
@@ -5603,19 +5604,19 @@
     </row>
     <row r="36" spans="2:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B36" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="76" t="s">
+      <c r="D36" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="37" t="s">
-        <v>140</v>
-      </c>
       <c r="E36" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F36" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G36" s="112"/>
       <c r="H36" s="85" t="str">
@@ -5631,19 +5632,19 @@
     </row>
     <row r="37" spans="2:13" ht="31" x14ac:dyDescent="0.35">
       <c r="B37" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="76" t="s">
-        <v>142</v>
-      </c>
       <c r="D37" s="44" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E37" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F37" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G37" s="112"/>
       <c r="H37" s="86" t="str">
@@ -5659,19 +5660,19 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B38" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="76" t="s">
+      <c r="D38" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="D38" s="44" t="s">
-        <v>145</v>
-      </c>
       <c r="E38" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F38" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G38" s="112"/>
       <c r="H38" s="86" t="str">
@@ -5684,19 +5685,19 @@
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B39" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="C39" s="76" t="s">
+      <c r="D39" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="D39" s="44" t="s">
-        <v>148</v>
-      </c>
       <c r="E39" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F39" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G39" s="112"/>
       <c r="H39" s="86" t="str">
@@ -5709,11 +5710,11 @@
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B40" s="81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C40" s="82"/>
       <c r="D40" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E40" s="83"/>
       <c r="F40" s="84"/>
@@ -5725,19 +5726,19 @@
     </row>
     <row r="41" spans="2:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B41" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="C41" s="76" t="s">
+      <c r="D41" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="D41" s="41" t="s">
-        <v>153</v>
-      </c>
       <c r="E41" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F41" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G41" s="112"/>
       <c r="H41" s="86" t="str">
@@ -5756,19 +5757,19 @@
     </row>
     <row r="42" spans="2:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B42" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="C42" s="76" t="s">
+      <c r="D42" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="D42" s="41" t="s">
-        <v>156</v>
-      </c>
       <c r="E42" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F42" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G42" s="112"/>
       <c r="H42" s="86" t="str">
@@ -5781,19 +5782,19 @@
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B43" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="C43" s="76" t="s">
+      <c r="D43" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="D43" s="41" t="s">
-        <v>159</v>
-      </c>
       <c r="E43" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F43" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G43" s="112"/>
       <c r="H43" s="85" t="str">
@@ -5810,13 +5811,13 @@
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B44" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="C44" s="76" t="s">
+      <c r="D44" s="41" t="s">
         <v>161</v>
-      </c>
-      <c r="D44" s="41" t="s">
-        <v>162</v>
       </c>
       <c r="E44" s="77"/>
       <c r="F44" s="78"/>
@@ -5832,19 +5833,19 @@
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B45" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="C45" s="76" t="s">
+      <c r="D45" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="D45" s="41" t="s">
-        <v>165</v>
-      </c>
       <c r="E45" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F45" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G45" s="112"/>
       <c r="H45" s="86" t="str">
@@ -5857,19 +5858,19 @@
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B46" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="C46" s="76" t="s">
+      <c r="D46" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="D46" s="41" t="s">
-        <v>168</v>
-      </c>
       <c r="E46" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F46" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G46" s="112"/>
       <c r="H46" s="86" t="str">
@@ -5885,19 +5886,19 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B47" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="C47" s="76" t="s">
+      <c r="D47" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="D47" s="41" t="s">
-        <v>171</v>
-      </c>
       <c r="E47" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F47" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G47" s="112"/>
       <c r="H47" s="86" t="str">
@@ -5910,20 +5911,20 @@
     </row>
     <row r="48" spans="2:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B48" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="C48" s="76" t="s">
+      <c r="D48" s="41" t="s">
         <v>173</v>
-      </c>
-      <c r="D48" s="41" t="s">
-        <v>174</v>
       </c>
       <c r="E48" s="80"/>
       <c r="F48" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G48" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H48" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05f-Testing-Local-Authentication.md#testing-biometric-authentication-mstg-auth-8"),"Testing Biometric Authentication (MSTG-AUTH-8)")</f>
@@ -5935,20 +5936,20 @@
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B49" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="C49" s="76" t="s">
+      <c r="D49" s="41" t="s">
         <v>176</v>
-      </c>
-      <c r="D49" s="41" t="s">
-        <v>177</v>
       </c>
       <c r="E49" s="80"/>
       <c r="F49" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G49" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H49" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
@@ -5960,20 +5961,20 @@
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B50" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="C50" s="76" t="s">
+      <c r="D50" s="41" t="s">
         <v>179</v>
-      </c>
-      <c r="D50" s="41" t="s">
-        <v>180</v>
       </c>
       <c r="E50" s="80"/>
       <c r="F50" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G50" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H50" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
@@ -5985,20 +5986,20 @@
     </row>
     <row r="51" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B51" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="C51" s="76" t="s">
-        <v>182</v>
-      </c>
       <c r="D51" s="41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E51" s="80"/>
       <c r="F51" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G51" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H51" s="88" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-login-activity-and-device-blocking-mstg-auth-11"),"Testing Login Activity and Device Blocking (MSTG-AUTH-11)")</f>
@@ -6010,19 +6011,19 @@
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B52" s="75" t="s">
+        <v>379</v>
+      </c>
+      <c r="C52" s="76" t="s">
         <v>380</v>
       </c>
-      <c r="C52" s="76" t="s">
-        <v>381</v>
-      </c>
       <c r="D52" s="41" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E52" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F52" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G52" s="112"/>
       <c r="H52" s="88"/>
@@ -6032,11 +6033,11 @@
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B53" s="81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C53" s="82"/>
       <c r="D53" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E53" s="83"/>
       <c r="F53" s="84"/>
@@ -6048,19 +6049,19 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B54" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="C54" s="76" t="s">
+      <c r="D54" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="D54" s="44" t="s">
-        <v>187</v>
-      </c>
       <c r="E54" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F54" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G54" s="112"/>
       <c r="H54" s="86" t="str">
@@ -6073,19 +6074,19 @@
     </row>
     <row r="55" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B55" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="C55" s="76" t="s">
+      <c r="D55" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="D55" s="41" t="s">
-        <v>190</v>
-      </c>
       <c r="E55" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F55" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G55" s="112"/>
       <c r="H55" s="86" t="str">
@@ -6098,19 +6099,19 @@
     </row>
     <row r="56" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B56" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="C56" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="C56" s="76" t="s">
+      <c r="D56" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="D56" s="41" t="s">
-        <v>193</v>
-      </c>
       <c r="E56" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F56" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G56" s="112"/>
       <c r="H56" s="86" t="str">
@@ -6123,20 +6124,20 @@
     </row>
     <row r="57" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B57" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="C57" s="76" t="s">
+      <c r="D57" s="41" t="s">
         <v>195</v>
-      </c>
-      <c r="D57" s="41" t="s">
-        <v>196</v>
       </c>
       <c r="E57" s="80"/>
       <c r="F57" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G57" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H57" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning-mstg-network-4"),"Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-4)")</f>
@@ -6151,20 +6152,20 @@
     </row>
     <row r="58" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B58" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="C58" s="76" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="76" t="s">
+      <c r="D58" s="41" t="s">
         <v>198</v>
-      </c>
-      <c r="D58" s="41" t="s">
-        <v>199</v>
       </c>
       <c r="E58" s="80"/>
       <c r="F58" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G58" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H58" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels-mstg-network-5"),"Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)")</f>
@@ -6176,20 +6177,20 @@
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B59" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="C59" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="C59" s="76" t="s">
+      <c r="D59" s="41" t="s">
         <v>201</v>
-      </c>
-      <c r="D59" s="41" t="s">
-        <v>202</v>
       </c>
       <c r="E59" s="80"/>
       <c r="F59" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G59" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H59" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-the-security-provider-mstg-network-6"),"Testing the Security Provider (MSTG-NETWORK-6)")</f>
@@ -6201,11 +6202,11 @@
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B60" s="81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C60" s="82"/>
       <c r="D60" s="38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E60" s="83"/>
       <c r="F60" s="84"/>
@@ -6217,19 +6218,19 @@
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B61" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="C61" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="C61" s="76" t="s">
+      <c r="D61" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="D61" s="44" t="s">
-        <v>207</v>
-      </c>
       <c r="E61" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F61" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G61" s="112"/>
       <c r="H61" s="86" t="str">
@@ -6242,19 +6243,19 @@
     </row>
     <row r="62" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B62" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="C62" s="76" t="s">
         <v>208</v>
       </c>
-      <c r="C62" s="76" t="s">
+      <c r="D62" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="D62" s="41" t="s">
-        <v>210</v>
-      </c>
       <c r="E62" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F62" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G62" s="112"/>
       <c r="H62" s="86" t="str">
@@ -6270,19 +6271,19 @@
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B63" s="75" t="s">
+        <v>210</v>
+      </c>
+      <c r="C63" s="76" t="s">
         <v>211</v>
       </c>
-      <c r="C63" s="76" t="s">
+      <c r="D63" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="D63" s="44" t="s">
-        <v>213</v>
-      </c>
       <c r="E63" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F63" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G63" s="112"/>
       <c r="H63" s="86" t="str">
@@ -6295,19 +6296,19 @@
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B64" s="75" t="s">
+        <v>213</v>
+      </c>
+      <c r="C64" s="76" t="s">
         <v>214</v>
       </c>
-      <c r="C64" s="76" t="s">
+      <c r="D64" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="D64" s="44" t="s">
-        <v>216</v>
-      </c>
       <c r="E64" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F64" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G64" s="112"/>
       <c r="H64" s="86" t="str">
@@ -6320,19 +6321,19 @@
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B65" s="75" t="s">
+        <v>216</v>
+      </c>
+      <c r="C65" s="76" t="s">
         <v>217</v>
       </c>
-      <c r="C65" s="76" t="s">
+      <c r="D65" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="D65" s="44" t="s">
-        <v>219</v>
-      </c>
       <c r="E65" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F65" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G65" s="112"/>
       <c r="H65" s="86" t="str">
@@ -6345,19 +6346,19 @@
     </row>
     <row r="66" spans="2:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B66" s="75" t="s">
+        <v>219</v>
+      </c>
+      <c r="C66" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="C66" s="76" t="s">
+      <c r="D66" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="D66" s="41" t="s">
-        <v>222</v>
-      </c>
       <c r="E66" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F66" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G66" s="112"/>
       <c r="H66" s="86" t="str">
@@ -6370,19 +6371,19 @@
     </row>
     <row r="67" spans="2:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B67" s="75" t="s">
+        <v>222</v>
+      </c>
+      <c r="C67" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="C67" s="76" t="s">
+      <c r="D67" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="D67" s="41" t="s">
-        <v>225</v>
-      </c>
       <c r="E67" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F67" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G67" s="112"/>
       <c r="H67" s="86" t="str">
@@ -6395,19 +6396,19 @@
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B68" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="C68" s="76" t="s">
         <v>226</v>
       </c>
-      <c r="C68" s="76" t="s">
+      <c r="D68" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="D68" s="44" t="s">
-        <v>228</v>
-      </c>
       <c r="E68" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F68" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G68" s="112"/>
       <c r="H68" s="86" t="str">
@@ -6420,20 +6421,20 @@
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B69" s="75" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C69" s="76" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D69" s="44" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E69" s="100"/>
       <c r="F69" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G69" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H69" s="86"/>
       <c r="I69" s="80"/>
@@ -6442,20 +6443,20 @@
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B70" s="75" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C70" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D70" s="44" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E70" s="100"/>
       <c r="F70" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G70" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H70" s="86"/>
       <c r="I70" s="80"/>
@@ -6464,20 +6465,20 @@
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B71" s="75" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C71" s="76" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D71" s="44" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E71" s="100"/>
       <c r="F71" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G71" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H71" s="86"/>
       <c r="I71" s="80"/>
@@ -6486,11 +6487,11 @@
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B72" s="81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C72" s="82"/>
       <c r="D72" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E72" s="83"/>
       <c r="F72" s="84"/>
@@ -6502,19 +6503,19 @@
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B73" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="C73" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="C73" s="76" t="s">
+      <c r="D73" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="D73" s="44" t="s">
-        <v>233</v>
-      </c>
       <c r="E73" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F73" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G73" s="112"/>
       <c r="H73" s="86" t="str">
@@ -6527,19 +6528,19 @@
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B74" s="75" t="s">
+        <v>233</v>
+      </c>
+      <c r="C74" s="76" t="s">
         <v>234</v>
       </c>
-      <c r="C74" s="76" t="s">
+      <c r="D74" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="D74" s="44" t="s">
-        <v>236</v>
-      </c>
       <c r="E74" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F74" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G74" s="112"/>
       <c r="H74" s="86" t="str">
@@ -6552,19 +6553,19 @@
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B75" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="C75" s="76" t="s">
         <v>237</v>
       </c>
-      <c r="C75" s="76" t="s">
+      <c r="D75" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="D75" s="44" t="s">
-        <v>239</v>
-      </c>
       <c r="E75" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F75" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G75" s="112"/>
       <c r="H75" s="86" t="str">
@@ -6577,19 +6578,19 @@
     </row>
     <row r="76" spans="2:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B76" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="C76" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="76" t="s">
-        <v>241</v>
-      </c>
       <c r="D76" s="44" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E76" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F76" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G76" s="112"/>
       <c r="H76" s="86" t="str">
@@ -6602,19 +6603,19 @@
     </row>
     <row r="77" spans="2:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B77" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="C77" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="C77" s="76" t="s">
+      <c r="D77" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="D77" s="37" t="s">
-        <v>244</v>
-      </c>
       <c r="E77" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F77" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G77" s="112"/>
       <c r="H77" s="88" t="str">
@@ -6627,19 +6628,19 @@
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B78" s="75" t="s">
+        <v>244</v>
+      </c>
+      <c r="C78" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="C78" s="76" t="s">
+      <c r="D78" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="D78" s="44" t="s">
-        <v>247</v>
-      </c>
       <c r="E78" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F78" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G78" s="112"/>
       <c r="H78" s="86" t="str">
@@ -6652,19 +6653,19 @@
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B79" s="75" t="s">
+        <v>247</v>
+      </c>
+      <c r="C79" s="76" t="s">
         <v>248</v>
       </c>
-      <c r="C79" s="76" t="s">
+      <c r="D79" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="D79" s="44" t="s">
-        <v>250</v>
-      </c>
       <c r="E79" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F79" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G79" s="112"/>
       <c r="H79" s="86" t="str">
@@ -6677,19 +6678,19 @@
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B80" s="75" t="s">
+        <v>250</v>
+      </c>
+      <c r="C80" s="76" t="s">
         <v>251</v>
       </c>
-      <c r="C80" s="76" t="s">
+      <c r="D80" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="D80" s="44" t="s">
-        <v>253</v>
-      </c>
       <c r="E80" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F80" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G80" s="112"/>
       <c r="H80" s="86" t="str">
@@ -6703,19 +6704,19 @@
     </row>
     <row r="81" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B81" s="75" t="s">
+        <v>253</v>
+      </c>
+      <c r="C81" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="C81" s="76" t="s">
+      <c r="D81" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="D81" s="37" t="s">
-        <v>256</v>
-      </c>
       <c r="E81" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F81" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G81" s="112"/>
       <c r="H81" s="86" t="str">
@@ -6776,7 +6777,7 @@
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B86" s="96" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C86" s="96"/>
       <c r="D86" s="44"/>
@@ -6790,11 +6791,11 @@
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B87" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C87" s="97"/>
       <c r="D87" s="45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E87" s="94"/>
       <c r="F87" s="94"/>
@@ -6806,11 +6807,11 @@
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B88" s="46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C88" s="46"/>
       <c r="D88" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E88" s="94"/>
       <c r="F88" s="94"/>
@@ -6822,11 +6823,11 @@
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B89" s="46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C89" s="46"/>
       <c r="D89" s="47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E89" s="94"/>
       <c r="F89" s="94"/>
@@ -6838,11 +6839,11 @@
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B90" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C90" s="46"/>
       <c r="D90" s="47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E90" s="94"/>
       <c r="F90" s="94"/>
@@ -6925,7 +6926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6943,7 +6944,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B1" s="101" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C1" s="101"/>
       <c r="D1" s="44"/>
@@ -6963,32 +6964,32 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="71" t="s">
-        <v>52</v>
-      </c>
       <c r="D3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="63" t="s">
         <v>266</v>
       </c>
-      <c r="E3" s="63" t="s">
-        <v>267</v>
-      </c>
       <c r="F3" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="H3" s="35" t="s">
         <v>57</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="81"/>
       <c r="C4" s="82"/>
       <c r="D4" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E4" s="83"/>
       <c r="F4" s="83"/>
@@ -6997,19 +6998,19 @@
     </row>
     <row r="5" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="75" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="76" t="s">
         <v>269</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="D5" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>271</v>
-      </c>
       <c r="E5" s="102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-root-detection-mstg-resilience-1"),"Testing Root Detection (MSTG-RESILIENCE-1)")</f>
@@ -7019,19 +7020,19 @@
     </row>
     <row r="6" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="76" t="s">
         <v>272</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="D6" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="D6" s="41" t="s">
-        <v>274</v>
-      </c>
       <c r="E6" s="102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" s="85" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-anti-debugging-detection-mstg-resilience-2"),"Testing Anti-Debugging Detection (MSTG-RESILIENCE-2)")</f>
@@ -7041,19 +7042,19 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="75" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="76" t="s">
         <v>275</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="D7" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="D7" s="44" t="s">
-        <v>277</v>
-      </c>
       <c r="E7" s="102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-file-integrity-checks-mstg-resilience-3"),"Testing File Integrity Checks (MSTG-RESILIENCE-3)")</f>
@@ -7063,19 +7064,19 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="D8" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="D8" s="44" t="s">
-        <v>280</v>
-      </c>
       <c r="E8" s="102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-reverse-engineering-tools-detection-mstg-resilience-4"),"Testing Reverse Engineering Tools Detection (MSTG-RESILIENCE-4)")</f>
@@ -7085,19 +7086,19 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="76" t="s">
         <v>281</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="D9" s="44" t="s">
         <v>282</v>
       </c>
-      <c r="D9" s="44" t="s">
-        <v>283</v>
-      </c>
       <c r="E9" s="102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-emulator-detection-mstg-resilience-5"),"Testing Emulator Detection (MSTG-RESILIENCE-5)")</f>
@@ -7107,19 +7108,19 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="D10" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="D10" s="44" t="s">
-        <v>286</v>
-      </c>
       <c r="E10" s="102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-run-time-integrity-checks-mstg-resilience-6"),"Testing Run Time Integrity Checks (MSTG-RESILIENCE-6)")</f>
@@ -7129,61 +7130,61 @@
     </row>
     <row r="11" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="75" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="76" t="s">
         <v>287</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="D11" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="E11" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="112" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="104" t="s">
         <v>289</v>
-      </c>
-      <c r="E11" s="102" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="112" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="104" t="s">
-        <v>290</v>
       </c>
       <c r="H11" s="113"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" s="76" t="s">
         <v>291</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="D12" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="E12" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="112" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="103" t="s">
         <v>293</v>
-      </c>
-      <c r="E12" s="102" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="112" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="103" t="s">
-        <v>294</v>
       </c>
       <c r="H12" s="113"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="75" t="s">
+        <v>294</v>
+      </c>
+      <c r="C13" s="76" t="s">
         <v>295</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="D13" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="D13" s="44" t="s">
-        <v>297</v>
-      </c>
       <c r="E13" s="102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation-mstg-resilience-9"),"Testing Obfuscation (MSTG-RESILIENCE-9)")</f>
@@ -7195,7 +7196,7 @@
       <c r="B14" s="81"/>
       <c r="C14" s="82"/>
       <c r="D14" s="38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E14" s="83"/>
       <c r="F14" s="83"/>
@@ -7204,19 +7205,19 @@
     </row>
     <row r="15" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="C15" s="76" t="s">
         <v>299</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="D15" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="D15" s="41" t="s">
-        <v>301</v>
-      </c>
       <c r="E15" s="102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G15" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-device-binding-mstg-resilience-10"),"Testing Device Binding (MSTG-RESILIENCE-10)")</f>
@@ -7228,7 +7229,7 @@
       <c r="B16" s="81"/>
       <c r="C16" s="82"/>
       <c r="D16" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E16" s="83"/>
       <c r="F16" s="83"/>
@@ -7237,19 +7238,19 @@
     </row>
     <row r="17" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="75" t="s">
+        <v>302</v>
+      </c>
+      <c r="C17" s="76" t="s">
         <v>303</v>
       </c>
-      <c r="C17" s="76" t="s">
+      <c r="D17" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="D17" s="41" t="s">
-        <v>305</v>
-      </c>
       <c r="E17" s="102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G17" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation-mstg-resilience-9"),"Testing Obfuscation (MSTG-RESILIENCE-9)")</f>
@@ -7259,22 +7260,22 @@
     </row>
     <row r="18" spans="2:8" ht="58" x14ac:dyDescent="0.35">
       <c r="B18" s="75" t="s">
+        <v>305</v>
+      </c>
+      <c r="C18" s="76" t="s">
         <v>306</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="D18" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="D18" s="41" t="s">
-        <v>308</v>
-      </c>
       <c r="E18" s="102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" s="103" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H18" s="113"/>
     </row>
@@ -7282,7 +7283,7 @@
       <c r="B19" s="81"/>
       <c r="C19" s="82"/>
       <c r="D19" s="38" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E19" s="83"/>
       <c r="F19" s="83"/>
@@ -7291,22 +7292,22 @@
     </row>
     <row r="20" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B20" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="C20" s="76" t="s">
         <v>394</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="D20" s="41" t="s">
         <v>395</v>
       </c>
-      <c r="D20" s="41" t="s">
-        <v>396</v>
-      </c>
       <c r="E20" s="102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G20" s="103" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H20" s="113"/>
     </row>
@@ -7339,7 +7340,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="96" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C24" s="96"/>
       <c r="D24" s="44"/>
@@ -7350,11 +7351,11 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C25" s="97"/>
       <c r="D25" s="45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E25" s="94"/>
       <c r="F25" s="94"/>
@@ -7363,11 +7364,11 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C26" s="46"/>
       <c r="D26" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E26" s="94"/>
       <c r="F26" s="94"/>
@@ -7376,11 +7377,11 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E27" s="94"/>
       <c r="F27" s="94"/>
@@ -7389,11 +7390,11 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="46"/>
       <c r="D28" s="47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E28" s="94"/>
       <c r="F28" s="94"/>
@@ -7444,7 +7445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:M94"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7465,7 +7466,7 @@
   <sheetData>
     <row r="1" spans="2:11" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B1" s="105" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C1" s="105"/>
       <c r="D1" s="49"/>
@@ -7491,39 +7492,39 @@
     </row>
     <row r="3" spans="2:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="D3" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="E3" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="F3" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="G3" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="H3" s="136" t="s">
         <v>56</v>
-      </c>
-      <c r="H3" s="136" t="s">
-        <v>57</v>
       </c>
       <c r="I3" s="136"/>
       <c r="J3" s="136"/>
       <c r="K3" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B4" s="72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="73"/>
       <c r="D4" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="74"/>
       <c r="F4" s="74"/>
@@ -7535,19 +7536,19 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="D5" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>63</v>
-      </c>
       <c r="E5" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="112"/>
       <c r="H5" s="79" t="str">
@@ -7560,19 +7561,19 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B6" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="D6" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="37" t="s">
-        <v>67</v>
-      </c>
       <c r="E6" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="112"/>
       <c r="H6" s="79" t="str">
@@ -7588,19 +7589,19 @@
     </row>
     <row r="7" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="D7" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="37" t="s">
-        <v>70</v>
-      </c>
       <c r="E7" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="112"/>
       <c r="H7" s="79" t="str">
@@ -7613,19 +7614,19 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B8" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="D8" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="37" t="s">
-        <v>73</v>
-      </c>
       <c r="E8" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="112"/>
       <c r="H8" s="79" t="str">
@@ -7638,20 +7639,20 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="D9" s="37" t="s">
         <v>75</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>76</v>
       </c>
       <c r="E9" s="80"/>
       <c r="F9" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H9" s="79" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#environmental-information"), "Environmental Information")</f>
@@ -7663,20 +7664,20 @@
     </row>
     <row r="10" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="D10" s="37" t="s">
         <v>79</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>80</v>
       </c>
       <c r="E10" s="80"/>
       <c r="F10" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H10" s="79" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#mapping-the-application"), "Mapping the Application")</f>
@@ -7688,20 +7689,20 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B11" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="D11" s="37" t="s">
         <v>82</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>83</v>
       </c>
       <c r="E11" s="80"/>
       <c r="F11" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H11" s="79" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#principles-of-testing"), "Principles of Testing")</f>
@@ -7716,20 +7717,20 @@
     </row>
     <row r="12" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="D12" s="37" t="s">
         <v>85</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>86</v>
       </c>
       <c r="E12" s="80"/>
       <c r="F12" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12" s="79" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04g-Testing-Cryptography.md#cryptographic-policy"), "Cryptographic policy")</f>
@@ -7741,20 +7742,20 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B13" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="D13" s="37" t="s">
         <v>88</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>89</v>
       </c>
       <c r="E13" s="80"/>
       <c r="F13" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H13" s="79" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x06h-Testing-Platform-Interaction.md#testing-enforced-updating-mstg-arch-9"), "Testing enforced updating (MSTG-ARCH-9)")</f>
@@ -7766,20 +7767,20 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="D14" s="37" t="s">
         <v>91</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>92</v>
       </c>
       <c r="E14" s="80"/>
       <c r="F14" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H14" s="79" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04b-Mobile-App-Security-Testing.md#security-testing-and-the-sdlc"), "Security Testing and the SDLC")</f>
@@ -7791,20 +7792,20 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B15" s="75" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E15" s="80"/>
       <c r="F15" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H15" s="79"/>
       <c r="I15" s="80"/>
@@ -7813,19 +7814,19 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B16" s="75" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E16" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="112"/>
       <c r="H16" s="79"/>
@@ -7835,11 +7836,11 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="82"/>
       <c r="D17" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" s="83"/>
       <c r="F17" s="84"/>
@@ -7851,19 +7852,19 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="76" t="s">
-        <v>96</v>
-      </c>
       <c r="D18" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E18" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="112"/>
       <c r="H18" s="86" t="str">
@@ -7876,13 +7877,13 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="76" t="s">
+      <c r="D19" s="37" t="s">
         <v>98</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>99</v>
       </c>
       <c r="E19" s="77"/>
       <c r="F19" s="78"/>
@@ -7897,19 +7898,19 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="D20" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="37" t="s">
-        <v>102</v>
-      </c>
       <c r="E20" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="112"/>
       <c r="H20" s="86" t="str">
@@ -7922,19 +7923,19 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="D21" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="37" t="s">
-        <v>105</v>
-      </c>
       <c r="E21" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="112"/>
       <c r="H21" s="86" t="str">
@@ -7947,19 +7948,19 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="D22" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="44" t="s">
-        <v>108</v>
-      </c>
       <c r="E22" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F22" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" s="112"/>
       <c r="H22" s="86" t="str">
@@ -7972,19 +7973,19 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="D23" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="44" t="s">
-        <v>111</v>
-      </c>
       <c r="E23" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F23" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23" s="112"/>
       <c r="H23" s="85" t="str">
@@ -7997,19 +7998,19 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="D24" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="44" t="s">
-        <v>114</v>
-      </c>
       <c r="E24" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24" s="112"/>
       <c r="H24" s="86" t="str">
@@ -8022,20 +8023,20 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="76" t="s">
+      <c r="D25" s="44" t="s">
         <v>116</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>117</v>
       </c>
       <c r="E25" s="80"/>
       <c r="F25" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G25" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H25" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-backups-for-sensitive-data-mstg-storage-8"),"Testing Backups for Sensitive Data (MSTG-STORAGE-8)")</f>
@@ -8047,20 +8048,20 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="76" t="s">
+      <c r="D26" s="44" t="s">
         <v>119</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>120</v>
       </c>
       <c r="E26" s="80"/>
       <c r="F26" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G26" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H26" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-auto-generated-screenshots-for-sensitive-information-mstg-storage-9"),"Testing Auto-Generated Screenshots for Sensitive Information (MSTG-STORAGE-9)")</f>
@@ -8072,20 +8073,20 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="76" t="s">
+      <c r="D27" s="44" t="s">
         <v>122</v>
-      </c>
-      <c r="D27" s="44" t="s">
-        <v>123</v>
       </c>
       <c r="E27" s="80"/>
       <c r="F27" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H27" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-memory-for-sensitive-data-mstg-storage-10"),"Testing Memory for Sensitive Data (MSTG-STORAGE-10)")</f>
@@ -8097,20 +8098,20 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="76" t="s">
+      <c r="D28" s="44" t="s">
         <v>125</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>126</v>
       </c>
       <c r="E28" s="80"/>
       <c r="F28" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H28" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06f-Testing-Local-Authentication.md#testing-local-authentication-mstg-auth-8-and-mstg-storage-11"),"Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)")</f>
@@ -8123,20 +8124,20 @@
     </row>
     <row r="29" spans="2:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B29" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="D29" s="37" t="s">
         <v>128</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>129</v>
       </c>
       <c r="E29" s="80"/>
       <c r="F29" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H29" s="88" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04i-Testing-user-interaction.md#testing-user-education-mstg-storage-12"),"Testing User Education (MSTG-STORAGE-12)")</f>
@@ -8149,20 +8150,20 @@
     </row>
     <row r="30" spans="2:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B30" s="75" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C30" s="76" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E30" s="80"/>
       <c r="F30" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H30" s="88"/>
       <c r="I30" s="80"/>
@@ -8172,20 +8173,20 @@
     </row>
     <row r="31" spans="2:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B31" s="75" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C31" s="76" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E31" s="80"/>
       <c r="F31" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H31" s="88"/>
       <c r="I31" s="80"/>
@@ -8195,20 +8196,20 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32" s="75" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C32" s="76" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E32" s="80"/>
       <c r="F32" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H32" s="88"/>
       <c r="I32" s="80"/>
@@ -8218,11 +8219,11 @@
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B33" s="81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C33" s="82"/>
       <c r="D33" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E33" s="83"/>
       <c r="F33" s="84"/>
@@ -8234,19 +8235,19 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B34" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="76" t="s">
+      <c r="D34" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="44" t="s">
-        <v>134</v>
-      </c>
       <c r="E34" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F34" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G34" s="112"/>
       <c r="H34" s="86" t="str">
@@ -8259,19 +8260,19 @@
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B35" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="C35" s="76" t="s">
+      <c r="D35" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="D35" s="44" t="s">
-        <v>137</v>
-      </c>
       <c r="E35" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F35" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G35" s="112"/>
       <c r="H35" s="85" t="str">
@@ -8284,19 +8285,19 @@
     </row>
     <row r="36" spans="2:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B36" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="76" t="s">
+      <c r="D36" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="37" t="s">
-        <v>140</v>
-      </c>
       <c r="E36" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F36" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G36" s="112"/>
       <c r="H36" s="85" t="str">
@@ -8309,19 +8310,19 @@
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="76" t="s">
-        <v>142</v>
-      </c>
       <c r="D37" s="44" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E37" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F37" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G37" s="112"/>
       <c r="H37" s="86" t="str">
@@ -8334,19 +8335,19 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B38" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="76" t="s">
+      <c r="D38" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="D38" s="44" t="s">
-        <v>145</v>
-      </c>
       <c r="E38" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F38" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G38" s="112"/>
       <c r="H38" s="86" t="str">
@@ -8359,19 +8360,19 @@
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B39" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="C39" s="76" t="s">
+      <c r="D39" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="D39" s="44" t="s">
-        <v>148</v>
-      </c>
       <c r="E39" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F39" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G39" s="112"/>
       <c r="H39" s="86" t="str">
@@ -8384,11 +8385,11 @@
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B40" s="81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C40" s="82"/>
       <c r="D40" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E40" s="83"/>
       <c r="F40" s="84"/>
@@ -8400,19 +8401,19 @@
     </row>
     <row r="41" spans="2:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B41" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="C41" s="76" t="s">
+      <c r="D41" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="D41" s="41" t="s">
-        <v>153</v>
-      </c>
       <c r="E41" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F41" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G41" s="112"/>
       <c r="H41" s="86" t="str">
@@ -8428,19 +8429,19 @@
     </row>
     <row r="42" spans="2:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B42" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="C42" s="76" t="s">
+      <c r="D42" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="D42" s="41" t="s">
-        <v>156</v>
-      </c>
       <c r="E42" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F42" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G42" s="112"/>
       <c r="H42" s="86" t="str">
@@ -8453,19 +8454,19 @@
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B43" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="C43" s="76" t="s">
+      <c r="D43" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="D43" s="41" t="s">
-        <v>159</v>
-      </c>
       <c r="E43" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F43" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G43" s="112"/>
       <c r="H43" s="86" t="str">
@@ -8481,13 +8482,13 @@
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B44" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="C44" s="76" t="s">
+      <c r="D44" s="41" t="s">
         <v>161</v>
-      </c>
-      <c r="D44" s="41" t="s">
-        <v>162</v>
       </c>
       <c r="E44" s="77"/>
       <c r="F44" s="78"/>
@@ -8503,19 +8504,19 @@
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B45" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="C45" s="76" t="s">
+      <c r="D45" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="D45" s="41" t="s">
-        <v>165</v>
-      </c>
       <c r="E45" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F45" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G45" s="112"/>
       <c r="H45" s="86" t="str">
@@ -8529,19 +8530,19 @@
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B46" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="C46" s="76" t="s">
+      <c r="D46" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="D46" s="41" t="s">
-        <v>168</v>
-      </c>
       <c r="E46" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F46" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G46" s="112"/>
       <c r="H46" s="86" t="str">
@@ -8557,19 +8558,19 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B47" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="C47" s="76" t="s">
+      <c r="D47" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="D47" s="41" t="s">
-        <v>171</v>
-      </c>
       <c r="E47" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F47" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G47" s="112"/>
       <c r="H47" s="86" t="str">
@@ -8582,20 +8583,20 @@
     </row>
     <row r="48" spans="2:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B48" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="C48" s="76" t="s">
+      <c r="D48" s="41" t="s">
         <v>173</v>
-      </c>
-      <c r="D48" s="41" t="s">
-        <v>174</v>
       </c>
       <c r="E48" s="80"/>
       <c r="F48" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G48" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H48" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06f-Testing-Local-Authentication.md#testing-local-authentication-mstg-auth-8-and-mstg-storage-11"),"Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)")</f>
@@ -8607,20 +8608,20 @@
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B49" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="C49" s="76" t="s">
+      <c r="D49" s="41" t="s">
         <v>176</v>
-      </c>
-      <c r="D49" s="41" t="s">
-        <v>177</v>
       </c>
       <c r="E49" s="80"/>
       <c r="F49" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G49" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H49" s="85" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
@@ -8632,20 +8633,20 @@
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B50" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="C50" s="76" t="s">
+      <c r="D50" s="41" t="s">
         <v>179</v>
-      </c>
-      <c r="D50" s="41" t="s">
-        <v>180</v>
       </c>
       <c r="E50" s="80"/>
       <c r="F50" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G50" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H50" s="85" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
@@ -8657,20 +8658,20 @@
     </row>
     <row r="51" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B51" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="C51" s="76" t="s">
-        <v>182</v>
-      </c>
       <c r="D51" s="41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E51" s="80"/>
       <c r="F51" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G51" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H51" s="88" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x04e-Testing-Authentication-and-Session-Management.md#testing-login-activity-and-device-blocking-mstg-auth-11"), "Testing Login Activity and Device Blocking (MSTG-AUTH-11)")</f>
@@ -8682,19 +8683,19 @@
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B52" s="75" t="s">
+        <v>379</v>
+      </c>
+      <c r="C52" s="76" t="s">
         <v>380</v>
       </c>
-      <c r="C52" s="76" t="s">
-        <v>381</v>
-      </c>
       <c r="D52" s="41" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E52" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F52" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G52" s="112"/>
       <c r="H52" s="88"/>
@@ -8704,11 +8705,11 @@
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B53" s="81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C53" s="82"/>
       <c r="D53" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E53" s="83"/>
       <c r="F53" s="84"/>
@@ -8720,19 +8721,19 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B54" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="C54" s="76" t="s">
+      <c r="D54" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="D54" s="44" t="s">
-        <v>187</v>
-      </c>
       <c r="E54" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F54" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G54" s="112"/>
       <c r="H54" s="85" t="str">
@@ -8745,19 +8746,19 @@
     </row>
     <row r="55" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B55" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="C55" s="76" t="s">
+      <c r="D55" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="D55" s="41" t="s">
-        <v>190</v>
-      </c>
       <c r="E55" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F55" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G55" s="112"/>
       <c r="H55" s="85" t="str">
@@ -8773,19 +8774,19 @@
     </row>
     <row r="56" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B56" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="C56" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="C56" s="76" t="s">
+      <c r="D56" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="D56" s="41" t="s">
-        <v>193</v>
-      </c>
       <c r="E56" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F56" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G56" s="112"/>
       <c r="H56" s="86" t="str">
@@ -8798,20 +8799,20 @@
     </row>
     <row r="57" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B57" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="C57" s="76" t="s">
+      <c r="D57" s="41" t="s">
         <v>195</v>
-      </c>
-      <c r="D57" s="41" t="s">
-        <v>196</v>
       </c>
       <c r="E57" s="80"/>
       <c r="F57" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G57" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H57" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning-mstg-network-3-and-mstg-network-4"),"Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)")</f>
@@ -8823,20 +8824,20 @@
     </row>
     <row r="58" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B58" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="C58" s="76" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="76" t="s">
+      <c r="D58" s="41" t="s">
         <v>198</v>
-      </c>
-      <c r="D58" s="41" t="s">
-        <v>199</v>
       </c>
       <c r="E58" s="80"/>
       <c r="F58" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G58" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H58" s="85" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels-mstg-network-5"),"Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)")</f>
@@ -8848,20 +8849,20 @@
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B59" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="C59" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="C59" s="76" t="s">
+      <c r="D59" s="41" t="s">
         <v>201</v>
-      </c>
-      <c r="D59" s="41" t="s">
-        <v>202</v>
       </c>
       <c r="E59" s="80"/>
       <c r="F59" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G59" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H59" s="86" t="str">
         <f>HYPERLINK(CONCATENATE( BASE_URL, "0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries-mstg-code-5"), "Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)")</f>
@@ -8873,11 +8874,11 @@
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B60" s="81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C60" s="82"/>
       <c r="D60" s="38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E60" s="83"/>
       <c r="F60" s="84"/>
@@ -8889,19 +8890,19 @@
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B61" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="C61" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="C61" s="76" t="s">
+      <c r="D61" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="D61" s="44" t="s">
-        <v>207</v>
-      </c>
       <c r="E61" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F61" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G61" s="112"/>
       <c r="H61" s="86" t="str">
@@ -8914,19 +8915,19 @@
     </row>
     <row r="62" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B62" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="C62" s="76" t="s">
         <v>208</v>
       </c>
-      <c r="C62" s="76" t="s">
+      <c r="D62" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="D62" s="41" t="s">
-        <v>210</v>
-      </c>
       <c r="E62" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F62" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G62" s="112"/>
       <c r="H62" s="86" t="str">
@@ -8939,19 +8940,19 @@
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B63" s="75" t="s">
+        <v>210</v>
+      </c>
+      <c r="C63" s="76" t="s">
         <v>211</v>
       </c>
-      <c r="C63" s="76" t="s">
+      <c r="D63" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="D63" s="44" t="s">
-        <v>213</v>
-      </c>
       <c r="E63" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F63" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G63" s="112"/>
       <c r="H63" s="86" t="str">
@@ -8964,19 +8965,19 @@
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B64" s="75" t="s">
+        <v>213</v>
+      </c>
+      <c r="C64" s="76" t="s">
         <v>214</v>
       </c>
-      <c r="C64" s="76" t="s">
+      <c r="D64" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="D64" s="44" t="s">
-        <v>216</v>
-      </c>
       <c r="E64" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F64" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G64" s="112"/>
       <c r="H64" s="79" t="str">
@@ -8989,19 +8990,19 @@
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B65" s="75" t="s">
+        <v>216</v>
+      </c>
+      <c r="C65" s="76" t="s">
         <v>217</v>
       </c>
-      <c r="C65" s="76" t="s">
+      <c r="D65" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="D65" s="44" t="s">
-        <v>219</v>
-      </c>
       <c r="E65" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F65" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G65" s="112"/>
       <c r="H65" s="86" t="str">
@@ -9014,19 +9015,19 @@
     </row>
     <row r="66" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B66" s="75" t="s">
+        <v>219</v>
+      </c>
+      <c r="C66" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="C66" s="76" t="s">
+      <c r="D66" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="D66" s="41" t="s">
-        <v>222</v>
-      </c>
       <c r="E66" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F66" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G66" s="112"/>
       <c r="H66" s="86" t="str">
@@ -9039,19 +9040,19 @@
     </row>
     <row r="67" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B67" s="75" t="s">
+        <v>222</v>
+      </c>
+      <c r="C67" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="C67" s="76" t="s">
+      <c r="D67" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="D67" s="41" t="s">
-        <v>225</v>
-      </c>
       <c r="E67" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F67" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G67" s="112"/>
       <c r="H67" s="86" t="str">
@@ -9064,19 +9065,19 @@
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B68" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="C68" s="76" t="s">
         <v>226</v>
       </c>
-      <c r="C68" s="76" t="s">
+      <c r="D68" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="D68" s="44" t="s">
-        <v>228</v>
-      </c>
       <c r="E68" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F68" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G68" s="112"/>
       <c r="H68" s="86" t="str">
@@ -9089,20 +9090,20 @@
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B69" s="75" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C69" s="76" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D69" s="44" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E69" s="100"/>
       <c r="F69" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G69" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H69" s="86"/>
       <c r="I69" s="80"/>
@@ -9111,20 +9112,20 @@
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B70" s="75" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C70" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D70" s="44" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E70" s="100"/>
       <c r="F70" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G70" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H70" s="86"/>
       <c r="I70" s="80"/>
@@ -9133,20 +9134,20 @@
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B71" s="75" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C71" s="76" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D71" s="44" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E71" s="100"/>
       <c r="F71" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G71" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H71" s="86"/>
       <c r="I71" s="80"/>
@@ -9155,11 +9156,11 @@
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B72" s="81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C72" s="82"/>
       <c r="D72" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E72" s="83"/>
       <c r="F72" s="84"/>
@@ -9171,19 +9172,19 @@
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B73" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="C73" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="C73" s="76" t="s">
+      <c r="D73" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="D73" s="44" t="s">
-        <v>233</v>
-      </c>
       <c r="E73" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F73" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G73" s="112"/>
       <c r="H73" s="86" t="str">
@@ -9196,19 +9197,19 @@
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B74" s="75" t="s">
+        <v>233</v>
+      </c>
+      <c r="C74" s="76" t="s">
         <v>234</v>
       </c>
-      <c r="C74" s="76" t="s">
+      <c r="D74" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="D74" s="44" t="s">
-        <v>236</v>
-      </c>
       <c r="E74" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F74" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G74" s="112"/>
       <c r="H74" s="86" t="str">
@@ -9221,19 +9222,19 @@
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B75" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="C75" s="76" t="s">
         <v>237</v>
       </c>
-      <c r="C75" s="76" t="s">
+      <c r="D75" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="D75" s="44" t="s">
-        <v>239</v>
-      </c>
       <c r="E75" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F75" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G75" s="112"/>
       <c r="H75" s="86" t="str">
@@ -9246,19 +9247,19 @@
     </row>
     <row r="76" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B76" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="C76" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="76" t="s">
-        <v>241</v>
-      </c>
       <c r="D76" s="44" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E76" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F76" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G76" s="112"/>
       <c r="H76" s="86" t="str">
@@ -9271,19 +9272,19 @@
     </row>
     <row r="77" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B77" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="C77" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="C77" s="76" t="s">
+      <c r="D77" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="D77" s="37" t="s">
-        <v>244</v>
-      </c>
       <c r="E77" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F77" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G77" s="112"/>
       <c r="H77" s="88" t="str">
@@ -9296,19 +9297,19 @@
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B78" s="75" t="s">
+        <v>244</v>
+      </c>
+      <c r="C78" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="C78" s="76" t="s">
+      <c r="D78" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="D78" s="44" t="s">
-        <v>247</v>
-      </c>
       <c r="E78" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F78" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G78" s="112"/>
       <c r="H78" s="86" t="str">
@@ -9321,19 +9322,19 @@
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B79" s="75" t="s">
+        <v>247</v>
+      </c>
+      <c r="C79" s="76" t="s">
         <v>248</v>
       </c>
-      <c r="C79" s="76" t="s">
+      <c r="D79" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="D79" s="44" t="s">
-        <v>250</v>
-      </c>
       <c r="E79" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F79" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G79" s="112"/>
       <c r="H79" s="86" t="str">
@@ -9346,19 +9347,19 @@
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B80" s="75" t="s">
+        <v>250</v>
+      </c>
+      <c r="C80" s="76" t="s">
         <v>251</v>
       </c>
-      <c r="C80" s="76" t="s">
+      <c r="D80" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="D80" s="44" t="s">
-        <v>253</v>
-      </c>
       <c r="E80" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F80" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G80" s="112"/>
       <c r="H80" s="86" t="str">
@@ -9371,19 +9372,19 @@
     </row>
     <row r="81" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B81" s="75" t="s">
+        <v>253</v>
+      </c>
+      <c r="C81" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="C81" s="76" t="s">
+      <c r="D81" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="D81" s="37" t="s">
-        <v>256</v>
-      </c>
       <c r="E81" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F81" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G81" s="112"/>
       <c r="H81" s="86" t="str">
@@ -9444,7 +9445,7 @@
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B86" s="109" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C86" s="109"/>
       <c r="D86" s="39"/>
@@ -9458,11 +9459,11 @@
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B87" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C87" s="97"/>
       <c r="D87" s="45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E87" s="95"/>
       <c r="F87" s="95"/>
@@ -9474,11 +9475,11 @@
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B88" s="46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C88" s="46"/>
       <c r="D88" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E88" s="95"/>
       <c r="F88" s="95"/>
@@ -9490,11 +9491,11 @@
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B89" s="46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C89" s="46"/>
       <c r="D89" s="47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E89" s="95"/>
       <c r="F89" s="95"/>
@@ -9506,11 +9507,11 @@
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B90" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C90" s="46"/>
       <c r="D90" s="47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E90" s="95"/>
       <c r="F90" s="95"/>
@@ -9612,7 +9613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -9630,7 +9631,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B1" s="105" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C1" s="105"/>
       <c r="G1" s="95"/>
@@ -9642,32 +9643,32 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="71" t="s">
-        <v>52</v>
-      </c>
       <c r="D3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="63" t="s">
         <v>266</v>
       </c>
-      <c r="E3" s="63" t="s">
-        <v>267</v>
-      </c>
       <c r="F3" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="H3" s="35" t="s">
         <v>57</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="81"/>
       <c r="C4" s="82"/>
       <c r="D4" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E4" s="83"/>
       <c r="F4" s="83"/>
@@ -9676,19 +9677,19 @@
     </row>
     <row r="5" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="75" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="76" t="s">
         <v>269</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="D5" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>271</v>
-      </c>
       <c r="E5" s="102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#jailbreak-detection-mstg-resilience-1"),"Jailbreak Detection (MSTG-RESILIENCE-1)")</f>
@@ -9698,19 +9699,19 @@
     </row>
     <row r="6" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="76" t="s">
         <v>272</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="D6" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="D6" s="41" t="s">
-        <v>274</v>
-      </c>
       <c r="E6" s="102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#anti-debugging-checks-mstg-resilience-2"),"Anti-Debugging Checks (MSTG-RESILIENCE-2)")</f>
@@ -9720,19 +9721,19 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="75" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="76" t="s">
         <v>275</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="D7" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="D7" s="44" t="s">
-        <v>277</v>
-      </c>
       <c r="E7" s="102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks-mstg-resilience-3-and-mstg-resilience-11"),"File Integrity Checks (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)")</f>
@@ -9742,127 +9743,127 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="D8" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="D8" s="44" t="s">
-        <v>280</v>
-      </c>
       <c r="E8" s="102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="111" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H8" s="113"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="76" t="s">
         <v>281</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="D9" s="44" t="s">
         <v>282</v>
       </c>
-      <c r="D9" s="44" t="s">
-        <v>283</v>
-      </c>
       <c r="E9" s="102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9" s="111" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H9" s="113"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="D10" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="D10" s="44" t="s">
-        <v>286</v>
-      </c>
       <c r="E10" s="102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10" s="111" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H10" s="113"/>
     </row>
     <row r="11" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="75" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="76" t="s">
         <v>287</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="D11" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="D11" s="41" t="s">
-        <v>289</v>
-      </c>
       <c r="E11" s="102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G11" s="103" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H11" s="113"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" s="76" t="s">
         <v>291</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="D12" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="E12" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="112" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="103" t="s">
         <v>293</v>
-      </c>
-      <c r="E12" s="102" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="112" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="103" t="s">
-        <v>294</v>
       </c>
       <c r="H12" s="113"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="75" t="s">
+        <v>294</v>
+      </c>
+      <c r="C13" s="76" t="s">
         <v>295</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="D13" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="D13" s="44" t="s">
-        <v>297</v>
-      </c>
       <c r="E13" s="102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" s="111" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H13" s="113"/>
     </row>
@@ -9870,7 +9871,7 @@
       <c r="B14" s="81"/>
       <c r="C14" s="82"/>
       <c r="D14" s="38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E14" s="83"/>
       <c r="F14" s="83"/>
@@ -9879,19 +9880,19 @@
     </row>
     <row r="15" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="C15" s="76" t="s">
         <v>299</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="D15" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="D15" s="41" t="s">
-        <v>301</v>
-      </c>
       <c r="E15" s="102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G15" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#device-binding-mstg-resilience-10"),"Device Binding (MSTG-RESILIENCE-10)")</f>
@@ -9903,7 +9904,7 @@
       <c r="B16" s="81"/>
       <c r="C16" s="82"/>
       <c r="D16" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E16" s="83"/>
       <c r="F16" s="83"/>
@@ -9912,19 +9913,19 @@
     </row>
     <row r="17" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B17" s="75" t="s">
+        <v>302</v>
+      </c>
+      <c r="C17" s="76" t="s">
         <v>303</v>
       </c>
-      <c r="C17" s="76" t="s">
+      <c r="D17" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="D17" s="41" t="s">
-        <v>305</v>
-      </c>
       <c r="E17" s="102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G17" s="88" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks-mstg-resilience-3-and-mstg-resilience-11"),"File Integrity Checks (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)")</f>
@@ -9934,22 +9935,22 @@
     </row>
     <row r="18" spans="2:8" ht="58" x14ac:dyDescent="0.35">
       <c r="B18" s="75" t="s">
+        <v>305</v>
+      </c>
+      <c r="C18" s="76" t="s">
         <v>306</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="D18" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="D18" s="41" t="s">
-        <v>308</v>
-      </c>
       <c r="E18" s="102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" s="103" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H18" s="113"/>
     </row>
@@ -9957,7 +9958,7 @@
       <c r="B19" s="81"/>
       <c r="C19" s="82"/>
       <c r="D19" s="38" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E19" s="83"/>
       <c r="F19" s="83"/>
@@ -9966,22 +9967,22 @@
     </row>
     <row r="20" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B20" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="C20" s="76" t="s">
         <v>394</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="D20" s="41" t="s">
         <v>395</v>
       </c>
-      <c r="D20" s="41" t="s">
-        <v>396</v>
-      </c>
       <c r="E20" s="102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G20" s="103" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H20" s="113"/>
     </row>
@@ -10014,7 +10015,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="109" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C24" s="109"/>
       <c r="D24" s="39"/>
@@ -10025,11 +10026,11 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C25" s="97"/>
       <c r="D25" s="45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E25" s="95"/>
       <c r="F25" s="95"/>
@@ -10038,11 +10039,11 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C26" s="46"/>
       <c r="D26" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E26" s="95"/>
       <c r="F26" s="95"/>
@@ -10051,11 +10052,11 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E27" s="95"/>
       <c r="F27" s="95"/>
@@ -10064,11 +10065,11 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="46"/>
       <c r="D28" s="47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E28" s="95"/>
       <c r="F28" s="95"/>
@@ -10196,7 +10197,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="137" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B1" s="137"/>
       <c r="C1" s="50"/>
@@ -10205,24 +10206,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="51" t="s">
+      <c r="D2" s="51" t="s">
         <v>313</v>
       </c>
-      <c r="D2" s="51" t="s">
-        <v>314</v>
-      </c>
       <c r="E2" s="51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="52" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B3" s="53">
         <v>0.1</v>
@@ -10232,12 +10233,12 @@
         <v>42765</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B4" s="53">
         <v>0.2</v>
@@ -10247,12 +10248,12 @@
         <v>42766</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="55" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B5" s="53">
         <v>0.3</v>
@@ -10262,102 +10263,102 @@
         <v>42778</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="B6" s="53" t="s">
         <v>321</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>322</v>
       </c>
       <c r="C6" s="53"/>
       <c r="D6" s="54">
         <v>42780</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C7" s="56"/>
       <c r="D7" s="54">
         <v>42781</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="55" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C8" s="56"/>
       <c r="D8" s="54">
         <v>42829</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C9" s="56"/>
       <c r="D9" s="54">
         <v>42919</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C10" s="56"/>
       <c r="D10" s="54">
         <v>42963</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C11" s="56"/>
       <c r="D11" s="54">
         <v>43113</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B12" s="56">
         <v>1.1000000000000001</v>
@@ -10367,130 +10368,130 @@
         <v>43289</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="B13" s="57" t="s">
         <v>334</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>335</v>
       </c>
       <c r="C13" s="58"/>
       <c r="D13" s="54">
         <v>43464</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="B14" s="57" t="s">
         <v>337</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>338</v>
       </c>
       <c r="C14" s="58"/>
       <c r="D14" s="54">
         <v>43469</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="60" t="s">
+        <v>338</v>
+      </c>
+      <c r="B15" s="56" t="s">
         <v>339</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="C15" s="56" t="s">
         <v>340</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>341</v>
       </c>
       <c r="D15" s="54">
         <v>43471</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="55" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D16" s="62">
         <v>43475</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A17" s="60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D17" s="54">
         <v>43476</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A18" s="60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D18" s="54">
         <v>43478</v>
       </c>
       <c r="E18" s="60" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A19" s="60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D19" s="54">
         <v>43478</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A20" s="60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C20" s="56" t="s">
         <v>3</v>
@@ -10499,15 +10500,15 @@
         <v>43641</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C21" s="56" t="s">
         <v>3</v>
@@ -10516,15 +10517,15 @@
         <v>43642</v>
       </c>
       <c r="E21" s="60" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A22" s="60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B22" s="57" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C22" s="56" t="s">
         <v>3</v>
@@ -10533,15 +10534,15 @@
         <v>43649</v>
       </c>
       <c r="E22" s="60" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C23" s="56" t="s">
         <v>3</v>
@@ -10550,15 +10551,15 @@
         <v>43672</v>
       </c>
       <c r="E23" s="60" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C24" s="56" t="s">
         <v>3</v>
@@ -10567,15 +10568,15 @@
         <v>43674</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A25" s="60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C25" s="56" t="s">
         <v>3</v>
@@ -10584,15 +10585,15 @@
         <v>43685</v>
       </c>
       <c r="E25" s="60" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A26" s="60" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C26" s="56" t="s">
         <v>3</v>
@@ -10601,15 +10602,15 @@
         <v>43719</v>
       </c>
       <c r="E26" s="60" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="217" x14ac:dyDescent="0.35">
       <c r="A27" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B27" s="57" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C27" s="56">
         <v>1.2</v>
@@ -10618,7 +10619,7 @@
         <v>43950</v>
       </c>
       <c r="E27" s="119" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
